--- a/biology/Médecine/Hémorragie_digestive_haute/Hémorragie_digestive_haute.xlsx
+++ b/biology/Médecine/Hémorragie_digestive_haute/Hémorragie_digestive_haute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_haute</t>
+          <t>Hémorragie_digestive_haute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hémorragie digestive haute est une hémorragie qui survient en amont de l’angle duodéno-jéjunal ou angle de Treitz : œsophage, estomac et duodénum.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_haute</t>
+          <t>Hémorragie_digestive_haute</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une hémorragie digestive haute peut être révélée par :
 une hématémèse qui est un vomissement sanglant (60 % des cas) ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_haute</t>
+          <t>Hémorragie_digestive_haute</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>ulcère gastro-duodénal (40-70 % des cas) ;
 en rapport avec une hypertension portale : rupture de varices œsophagiennes (14 à 28 % des cas), rupture de varices cardio-tubérositaires, gastropathie d'hypertension portale hémorragique ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_haute</t>
+          <t>Hémorragie_digestive_haute</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs scores de risque ont été développés afin d'estimer le pronostic de l'hémorragie digestive haute. Ils sont basées sur la clinique, la biologie, et parfois les données endoscopiques. Parmi ces scores, on peut citer le « Rockall score »[1], le « Glasgow Blatchford score »[2] et l'AIMS65[3], seul ce dernier étant spécifique de l'hémorragie sur ulcère gastrique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs scores de risque ont été développés afin d'estimer le pronostic de l'hémorragie digestive haute. Ils sont basées sur la clinique, la biologie, et parfois les données endoscopiques. Parmi ces scores, on peut citer le « Rockall score », le « Glasgow Blatchford score » et l'AIMS65, seul ce dernier étant spécifique de l'hémorragie sur ulcère gastrique.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_haute</t>
+          <t>Hémorragie_digestive_haute</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement concerne plusieurs aspects, dont le traitement de l'étiologie. Le traitement de l'hémorragie peut se faire par un traitement vasoactif (terlipressine, somatostatine ou analogue), voire consister en la pose d'une sonde de Blackmore selon les cas.
 </t>
